--- a/Berri_Sarah_1_rapport_analyse_092022/Audit-SEO-LaPanthère.xlsx
+++ b/Berri_Sarah_1_rapport_analyse_092022/Audit-SEO-LaPanthère.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\Berri_Sarah_1_rapport_analyse_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15AAE0DF-AF70-4915-8E9E-2517647524DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106CB00B-7A83-43B5-8ABA-9F9579E25699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,7 +51,13 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
+    <t>DOCTYPE</t>
+  </si>
+  <si>
+    <t>Langue par défaut</t>
+  </si>
+  <si>
+    <t>Choisir "fr" ou "en"</t>
   </si>
 </sst>
 </file>
@@ -349,13 +355,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
@@ -403,6 +411,12 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
     </row>

--- a/Berri_Sarah_1_rapport_analyse_092022/Audit-SEO-LaPanthère.xlsx
+++ b/Berri_Sarah_1_rapport_analyse_092022/Audit-SEO-LaPanthère.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\Berri_Sarah_1_rapport_analyse_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106CB00B-7A83-43B5-8ABA-9F9579E25699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5DCE92-A5B2-43A0-A631-C80ED28104CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Catégorie</t>
   </si>
@@ -58,13 +58,85 @@
   </si>
   <si>
     <t>Choisir "fr" ou "en"</t>
+  </si>
+  <si>
+    <t>Balise Titre</t>
+  </si>
+  <si>
+    <t>Donnez un titre à son site</t>
+  </si>
+  <si>
+    <t>Titre du site manquant</t>
+  </si>
+  <si>
+    <t>Couleur présente</t>
+  </si>
+  <si>
+    <t>Couleur présente dans les balises</t>
+  </si>
+  <si>
+    <t>Référencement site par titre</t>
+  </si>
+  <si>
+    <t>Aucune langue n'est choisie</t>
+  </si>
+  <si>
+    <t>Balise page 2</t>
+  </si>
+  <si>
+    <t>Lien vers la page 2 mal implémentée</t>
+  </si>
+  <si>
+    <t>Ne pas avoir des balises non fermées</t>
+  </si>
+  <si>
+    <t>Choisir langue</t>
+  </si>
+  <si>
+    <t>Faire attention à la syntaxe</t>
+  </si>
+  <si>
+    <t>image Logo</t>
+  </si>
+  <si>
+    <t>Les balises alt contiennent trop de mots</t>
+  </si>
+  <si>
+    <t>On ne peut pas avoir trop de mots clé dans une image</t>
+  </si>
+  <si>
+    <t>Simplifier la description</t>
+  </si>
+  <si>
+    <t>Agir sur ce problème là</t>
+  </si>
+  <si>
+    <t>httpshttps://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>Balise div keywords</t>
+  </si>
+  <si>
+    <t>Balise tag</t>
+  </si>
+  <si>
+    <t>Il manque la balise  TAG de google analytics</t>
+  </si>
+  <si>
+    <t>Aucune données de récoltées</t>
+  </si>
+  <si>
+    <t>Implémentet une balise TAG</t>
+  </si>
+  <si>
+    <t>https://analytics.google.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,13 +158,27 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -129,14 +215,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,17 +466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1"/>
     <col min="4" max="4" width="35.6328125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="65.1796875" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -409,55 +522,134 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:26" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="4"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1446,6 +1638,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>